--- a/Perkebunan_Sumatra.xlsx
+++ b/Perkebunan_Sumatra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTER 4\KOMSTAT\PROJECT\R-Shiny\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amirs\Downloads\Project Rshiny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA57599-C1F2-44DF-94BE-A3AF2B335567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38640013-A2A3-4A82-AF36-B1079211787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="9620" windowHeight="8690" xr2:uid="{14DA1A11-56EC-474E-971B-B70269E70D6B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{14DA1A11-56EC-474E-971B-B70269E70D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="22">
   <si>
     <t>Provinsi</t>
   </si>
@@ -89,6 +89,18 @@
   <si>
     <t>Produksi</t>
   </si>
+  <si>
+    <t>Sumatera Utara</t>
+  </si>
+  <si>
+    <t>Bengkulu</t>
+  </si>
+  <si>
+    <t>Kepulauan Bangka Belitung</t>
+  </si>
+  <si>
+    <t>Kepulauan Riau</t>
+  </si>
 </sst>
 </file>
 
@@ -138,9 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,21 +469,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB3CC5E-D7F6-4524-BB61-FA325DC88D18}">
-  <dimension ref="A1:D337"/>
+  <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="H403" sqref="H403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -497,7 +511,7 @@
         <v>867.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -511,7 +525,7 @@
         <v>1037.4000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -525,7 +539,7 @@
         <v>1133.3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -539,7 +553,7 @@
         <v>1134.5999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -553,7 +567,7 @@
         <v>1036.0999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -567,7 +581,7 @@
         <v>979.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -581,7 +595,7 @@
         <v>1010.2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,7 +609,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -609,7 +623,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -623,7 +637,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -637,7 +651,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -651,7 +665,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -665,7 +679,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -679,7 +693,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -693,7 +707,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -707,7 +721,7 @@
         <v>93.7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,7 +735,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -735,7 +749,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,7 +763,7 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -763,7 +777,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,7 +791,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -791,7 +805,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -805,7 +819,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -819,7 +833,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -833,7 +847,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -847,7 +861,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -861,7 +875,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -875,7 +889,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -889,7 +903,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -903,7 +917,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -917,7 +931,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -931,7 +945,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -945,7 +959,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -959,7 +973,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -973,7 +987,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -985,7 +999,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -997,7 +1011,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +1023,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1035,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1047,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -1047,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1061,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1087,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1099,7 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -1097,7 +1111,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1123,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1135,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +1191,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1205,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -1205,7 +1219,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1233,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -1233,7 +1247,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -1247,7 +1261,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -1261,7 +1275,7 @@
         <v>7591.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1289,7 @@
         <v>8496</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1303,7 @@
         <v>9512.9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>12</v>
       </c>
@@ -1303,7 +1317,7 @@
         <v>9984.2999999999993</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
@@ -1317,7 +1331,7 @@
         <v>8629.1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
@@ -1331,7 +1345,7 @@
         <v>8739.1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -1345,7 +1359,7 @@
         <v>8790.7000000000007</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
@@ -1359,7 +1373,7 @@
         <v>390.6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
@@ -1373,7 +1387,7 @@
         <v>392.7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
@@ -1387,7 +1401,7 @@
         <v>390.7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1415,7 @@
         <v>399.4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
@@ -1415,7 +1429,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -1429,7 +1443,7 @@
         <v>417.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
@@ -1443,7 +1457,7 @@
         <v>406.9</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -1457,7 +1471,7 @@
         <v>368.6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
@@ -1471,7 +1485,7 @@
         <v>337.3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>12</v>
       </c>
@@ -1485,7 +1499,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
@@ -1499,7 +1513,7 @@
         <v>291.89999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -1513,7 +1527,7 @@
         <v>306.2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -1527,7 +1541,7 @@
         <v>222.3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -1541,7 +1555,7 @@
         <v>214.8</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>12</v>
       </c>
@@ -1555,7 +1569,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
@@ -1569,7 +1583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1597,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -1597,7 +1611,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -1611,7 +1625,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>12</v>
       </c>
@@ -1625,7 +1639,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -1639,7 +1653,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -1653,7 +1667,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -1667,7 +1681,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -1681,7 +1695,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -1695,7 +1709,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
@@ -1709,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -1723,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -1737,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -1749,7 +1763,7 @@
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -1761,7 +1775,7 @@
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>12</v>
       </c>
@@ -1773,7 +1787,7 @@
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -1785,7 +1799,7 @@
       </c>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>12</v>
       </c>
@@ -1797,7 +1811,7 @@
       </c>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>12</v>
       </c>
@@ -1811,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -1825,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>12</v>
       </c>
@@ -1837,7 +1851,7 @@
       </c>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -1849,7 +1863,7 @@
       </c>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
@@ -1861,7 +1875,7 @@
       </c>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>12</v>
       </c>
@@ -1873,7 +1887,7 @@
       </c>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
@@ -1885,7 +1899,7 @@
       </c>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>12</v>
       </c>
@@ -1899,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
@@ -1913,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -1925,7 +1939,7 @@
       </c>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>12</v>
       </c>
@@ -1937,7 +1951,7 @@
       </c>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>12</v>
       </c>
@@ -1949,7 +1963,7 @@
       </c>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>12</v>
       </c>
@@ -1961,7 +1975,7 @@
       </c>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
@@ -1973,7 +1987,7 @@
       </c>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -1987,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -2001,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -2015,7 +2029,7 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>13</v>
       </c>
@@ -2029,7 +2043,7 @@
         <v>3793.6</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>13</v>
       </c>
@@ -2043,7 +2057,7 @@
         <v>4049.2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
@@ -2057,7 +2071,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -2071,7 +2085,7 @@
         <v>3062.4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
@@ -2085,7 +2099,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>13</v>
       </c>
@@ -2099,7 +2113,7 @@
         <v>4119.2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
@@ -2113,7 +2127,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
@@ -2127,7 +2141,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
@@ -2141,7 +2155,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -2155,7 +2169,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>13</v>
       </c>
@@ -2169,7 +2183,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -2183,7 +2197,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
@@ -2197,7 +2211,7 @@
         <v>114.9</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
@@ -2211,7 +2225,7 @@
         <v>1035.5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>13</v>
       </c>
@@ -2225,7 +2239,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>13</v>
       </c>
@@ -2239,7 +2253,7 @@
         <v>944.2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
@@ -2253,7 +2267,7 @@
         <v>804.8</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>13</v>
       </c>
@@ -2267,7 +2281,7 @@
         <v>891.8</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>13</v>
       </c>
@@ -2281,7 +2295,7 @@
         <v>783.3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>13</v>
       </c>
@@ -2295,7 +2309,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>13</v>
       </c>
@@ -2309,7 +2323,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>13</v>
       </c>
@@ -2323,7 +2337,7 @@
         <v>193.5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>13</v>
       </c>
@@ -2337,7 +2351,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
@@ -2351,7 +2365,7 @@
         <v>191.2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -2365,7 +2379,7 @@
         <v>201.4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>13</v>
       </c>
@@ -2379,7 +2393,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>13</v>
       </c>
@@ -2393,7 +2407,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>13</v>
       </c>
@@ -2407,7 +2421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>13</v>
       </c>
@@ -2421,7 +2435,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>13</v>
       </c>
@@ -2435,7 +2449,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>13</v>
       </c>
@@ -2449,7 +2463,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>13</v>
       </c>
@@ -2463,7 +2477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>13</v>
       </c>
@@ -2477,7 +2491,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>13</v>
       </c>
@@ -2491,7 +2505,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>13</v>
       </c>
@@ -2505,7 +2519,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -2519,7 +2533,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
@@ -2533,7 +2547,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
@@ -2547,7 +2561,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
@@ -2561,7 +2575,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -2575,7 +2589,7 @@
         <v>112.4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
@@ -2589,7 +2603,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>13</v>
       </c>
@@ -2603,7 +2617,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
@@ -2617,7 +2631,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
@@ -2631,7 +2645,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>13</v>
       </c>
@@ -2645,7 +2659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -2659,7 +2673,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>13</v>
       </c>
@@ -2673,7 +2687,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
@@ -2687,7 +2701,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>13</v>
       </c>
@@ -2701,7 +2715,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -2715,7 +2729,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
@@ -2729,7 +2743,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2757,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -2757,7 +2771,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>13</v>
       </c>
@@ -2771,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
@@ -2785,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -2799,7 +2813,7 @@
         <v>1209.2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>14</v>
       </c>
@@ -2813,7 +2827,7 @@
         <v>1248.3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>14</v>
       </c>
@@ -2827,7 +2841,7 @@
         <v>1253.4000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>14</v>
       </c>
@@ -2841,7 +2855,7 @@
         <v>1312.3</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>14</v>
       </c>
@@ -2855,7 +2869,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>14</v>
       </c>
@@ -2869,7 +2883,7 @@
         <v>1411.6</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>14</v>
       </c>
@@ -2883,7 +2897,7 @@
         <v>1420.9</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>14</v>
       </c>
@@ -2897,7 +2911,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>14</v>
       </c>
@@ -2911,7 +2925,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>14</v>
       </c>
@@ -2925,7 +2939,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>14</v>
       </c>
@@ -2939,7 +2953,7 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>14</v>
       </c>
@@ -2953,7 +2967,7 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>14</v>
       </c>
@@ -2967,7 +2981,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>14</v>
       </c>
@@ -2981,7 +2995,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>14</v>
       </c>
@@ -2995,7 +3009,7 @@
         <v>152.4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>14</v>
       </c>
@@ -3009,7 +3023,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>14</v>
       </c>
@@ -3023,7 +3037,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>14</v>
       </c>
@@ -3037,7 +3051,7 @@
         <v>132.1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>14</v>
       </c>
@@ -3051,7 +3065,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>14</v>
       </c>
@@ -3065,7 +3079,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>14</v>
       </c>
@@ -3079,7 +3093,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>14</v>
       </c>
@@ -3093,7 +3107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>14</v>
       </c>
@@ -3107,7 +3121,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>14</v>
       </c>
@@ -3121,7 +3135,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>14</v>
       </c>
@@ -3135,7 +3149,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>14</v>
       </c>
@@ -3149,7 +3163,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>14</v>
       </c>
@@ -3163,7 +3177,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>14</v>
       </c>
@@ -3177,7 +3191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -3191,7 +3205,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>14</v>
       </c>
@@ -3205,7 +3219,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>14</v>
       </c>
@@ -3219,7 +3233,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>14</v>
       </c>
@@ -3233,7 +3247,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>14</v>
       </c>
@@ -3247,7 +3261,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>14</v>
       </c>
@@ -3261,7 +3275,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>14</v>
       </c>
@@ -3275,7 +3289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>14</v>
       </c>
@@ -3287,7 +3301,7 @@
       </c>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>14</v>
       </c>
@@ -3299,7 +3313,7 @@
       </c>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>14</v>
       </c>
@@ -3311,7 +3325,7 @@
       </c>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>14</v>
       </c>
@@ -3323,7 +3337,7 @@
       </c>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>14</v>
       </c>
@@ -3335,7 +3349,7 @@
       </c>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>14</v>
       </c>
@@ -3349,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>14</v>
       </c>
@@ -3363,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>14</v>
       </c>
@@ -3377,7 +3391,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>14</v>
       </c>
@@ -3391,7 +3405,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>14</v>
       </c>
@@ -3405,7 +3419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>14</v>
       </c>
@@ -3419,7 +3433,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>14</v>
       </c>
@@ -3433,7 +3447,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>14</v>
       </c>
@@ -3447,7 +3461,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>14</v>
       </c>
@@ -3461,7 +3475,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>14</v>
       </c>
@@ -3475,7 +3489,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>14</v>
       </c>
@@ -3489,7 +3503,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>14</v>
       </c>
@@ -3503,7 +3517,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>14</v>
       </c>
@@ -3517,7 +3531,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>14</v>
       </c>
@@ -3531,7 +3545,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>14</v>
       </c>
@@ -3545,7 +3559,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>14</v>
       </c>
@@ -3559,7 +3573,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>16</v>
       </c>
@@ -3573,7 +3587,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>16</v>
       </c>
@@ -3587,7 +3601,7 @@
         <v>2691.3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>16</v>
       </c>
@@ -3601,7 +3615,7 @@
         <v>2884.4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>16</v>
       </c>
@@ -3615,7 +3629,7 @@
         <v>3022.6</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>16</v>
       </c>
@@ -3629,7 +3643,7 @@
         <v>2575.1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>16</v>
       </c>
@@ -3643,7 +3657,7 @@
         <v>2514.6999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>16</v>
       </c>
@@ -3657,7 +3671,7 @@
         <v>2533.6</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>16</v>
       </c>
@@ -3671,7 +3685,7 @@
         <v>108.2</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>16</v>
       </c>
@@ -3685,7 +3699,7 @@
         <v>107.9</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>16</v>
       </c>
@@ -3699,7 +3713,7 @@
         <v>108.9</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>16</v>
       </c>
@@ -3713,7 +3727,7 @@
         <v>109.6</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -3727,7 +3741,7 @@
         <v>115.8</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
@@ -3741,7 +3755,7 @@
         <v>114.3</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>16</v>
       </c>
@@ -3755,7 +3769,7 @@
         <v>114.3</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>16</v>
       </c>
@@ -3769,7 +3783,7 @@
         <v>315.39999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>16</v>
       </c>
@@ -3783,7 +3797,7 @@
         <v>319.5</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>16</v>
       </c>
@@ -3797,7 +3811,7 @@
         <v>301.39999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>16</v>
       </c>
@@ -3811,7 +3825,7 @@
         <v>262.8</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>16</v>
       </c>
@@ -3825,7 +3839,7 @@
         <v>310.3</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>16</v>
       </c>
@@ -3839,7 +3853,7 @@
         <v>294.8</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>16</v>
       </c>
@@ -3853,7 +3867,7 @@
         <v>285.5</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>16</v>
       </c>
@@ -3867,7 +3881,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>16</v>
       </c>
@@ -3881,7 +3895,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>16</v>
       </c>
@@ -3895,7 +3909,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>16</v>
       </c>
@@ -3909,7 +3923,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>16</v>
       </c>
@@ -3923,7 +3937,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>16</v>
       </c>
@@ -3937,7 +3951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>16</v>
       </c>
@@ -3951,7 +3965,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>16</v>
       </c>
@@ -3965,7 +3979,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>16</v>
       </c>
@@ -3979,7 +3993,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>16</v>
       </c>
@@ -3993,7 +4007,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>16</v>
       </c>
@@ -4007,7 +4021,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>16</v>
       </c>
@@ -4021,7 +4035,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>16</v>
       </c>
@@ -4035,7 +4049,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>16</v>
       </c>
@@ -4049,7 +4063,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>16</v>
       </c>
@@ -4061,7 +4075,7 @@
       </c>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>16</v>
       </c>
@@ -4073,7 +4087,7 @@
       </c>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>16</v>
       </c>
@@ -4085,7 +4099,7 @@
       </c>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>16</v>
       </c>
@@ -4097,7 +4111,7 @@
       </c>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>16</v>
       </c>
@@ -4109,7 +4123,7 @@
       </c>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>16</v>
       </c>
@@ -4123,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>16</v>
       </c>
@@ -4137,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>16</v>
       </c>
@@ -4151,7 +4165,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>16</v>
       </c>
@@ -4165,7 +4179,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>16</v>
       </c>
@@ -4179,7 +4193,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>16</v>
       </c>
@@ -4193,7 +4207,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>16</v>
       </c>
@@ -4207,7 +4221,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>16</v>
       </c>
@@ -4221,7 +4235,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>16</v>
       </c>
@@ -4235,7 +4249,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>16</v>
       </c>
@@ -4249,7 +4263,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>16</v>
       </c>
@@ -4263,7 +4277,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>16</v>
       </c>
@@ -4277,7 +4291,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>16</v>
       </c>
@@ -4291,7 +4305,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
         <v>16</v>
       </c>
@@ -4305,7 +4319,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>16</v>
       </c>
@@ -4319,7 +4333,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>16</v>
       </c>
@@ -4333,7 +4347,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>15</v>
       </c>
@@ -4347,7 +4361,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>15</v>
       </c>
@@ -4361,7 +4375,7 @@
         <v>487.2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>15</v>
       </c>
@@ -4375,7 +4389,7 @@
         <v>414.2</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>15</v>
       </c>
@@ -4389,7 +4403,7 @@
         <v>384.9</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>15</v>
       </c>
@@ -4403,7 +4417,7 @@
         <v>420.7</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
         <v>15</v>
       </c>
@@ -4417,7 +4431,7 @@
         <v>475.8</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>15</v>
       </c>
@@ -4431,7 +4445,7 @@
         <v>481.5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>15</v>
       </c>
@@ -4445,7 +4459,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>15</v>
       </c>
@@ -4459,7 +4473,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>15</v>
       </c>
@@ -4473,7 +4487,7 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="1" t="s">
         <v>15</v>
       </c>
@@ -4487,7 +4501,7 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
         <v>15</v>
       </c>
@@ -4501,7 +4515,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="1" t="s">
         <v>15</v>
       </c>
@@ -4515,7 +4529,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>15</v>
       </c>
@@ -4529,7 +4543,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>15</v>
       </c>
@@ -4543,7 +4557,7 @@
         <v>159.80000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>15</v>
       </c>
@@ -4557,7 +4571,7 @@
         <v>174.1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
         <v>15</v>
       </c>
@@ -4571,7 +4585,7 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>15</v>
       </c>
@@ -4585,7 +4599,7 @@
         <v>136.9</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
         <v>15</v>
       </c>
@@ -4599,7 +4613,7 @@
         <v>144.5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>15</v>
       </c>
@@ -4613,7 +4627,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
         <v>15</v>
       </c>
@@ -4627,7 +4641,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
         <v>15</v>
       </c>
@@ -4641,7 +4655,7 @@
         <v>107.2</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
         <v>15</v>
       </c>
@@ -4655,7 +4669,7 @@
         <v>110.6</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
         <v>15</v>
       </c>
@@ -4669,7 +4683,7 @@
         <v>117.1</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
         <v>15</v>
       </c>
@@ -4683,7 +4697,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>15</v>
       </c>
@@ -4697,7 +4711,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
         <v>15</v>
       </c>
@@ -4711,7 +4725,7 @@
         <v>113.7</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
         <v>15</v>
       </c>
@@ -4725,7 +4739,7 @@
         <v>108.1</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
         <v>15</v>
       </c>
@@ -4739,7 +4753,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
         <v>15</v>
       </c>
@@ -4753,7 +4767,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
         <v>15</v>
       </c>
@@ -4767,7 +4781,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>15</v>
       </c>
@@ -4781,7 +4795,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
         <v>15</v>
       </c>
@@ -4795,7 +4809,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>15</v>
       </c>
@@ -4809,7 +4823,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
         <v>15</v>
       </c>
@@ -4823,7 +4837,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
         <v>15</v>
       </c>
@@ -4837,7 +4851,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
         <v>15</v>
       </c>
@@ -4851,7 +4865,7 @@
         <v>596.20000000000005</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
         <v>15</v>
       </c>
@@ -4865,7 +4879,7 @@
         <v>742.1</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
         <v>15</v>
       </c>
@@ -4879,7 +4893,7 @@
         <v>732.1</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>15</v>
       </c>
@@ -4893,7 +4907,7 @@
         <v>802.4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>15</v>
       </c>
@@ -4907,7 +4921,7 @@
         <v>721.5</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
         <v>15</v>
       </c>
@@ -4921,7 +4935,7 @@
         <v>648.29999999999995</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>15</v>
       </c>
@@ -4933,7 +4947,7 @@
       </c>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
         <v>15</v>
       </c>
@@ -4945,7 +4959,7 @@
       </c>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
         <v>15</v>
       </c>
@@ -4957,7 +4971,7 @@
       </c>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>15</v>
       </c>
@@ -4969,7 +4983,7 @@
       </c>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
         <v>15</v>
       </c>
@@ -4981,7 +4995,7 @@
       </c>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>15</v>
       </c>
@@ -4995,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
         <v>15</v>
       </c>
@@ -5009,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>15</v>
       </c>
@@ -5023,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>15</v>
       </c>
@@ -5037,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
         <v>15</v>
       </c>
@@ -5051,7 +5065,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
         <v>15</v>
       </c>
@@ -5065,7 +5079,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>15</v>
       </c>
@@ -5079,7 +5093,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
         <v>15</v>
       </c>
@@ -5093,7 +5107,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
         <v>15</v>
       </c>
@@ -5106,6 +5120,942 @@
       <c r="D337" s="1">
         <v>0.4</v>
       </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A338" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B338" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D338" s="3">
+        <v>8237.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A339" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B339" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D339" s="3">
+        <v>8295.1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A340" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B340" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D340" s="3">
+        <v>8273.2000000000007</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A341" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B341" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D341" s="3">
+        <v>8259.9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A342" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B342" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D342" s="3">
+        <v>8215.6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A343" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B343" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D343" s="3">
+        <v>8215.6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A344" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B344" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" s="3">
+        <v>1017.4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A345" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B345" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" s="3">
+        <v>1259.9000000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A346" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B346" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" s="3">
+        <v>1180.3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A347" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B347" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" s="3">
+        <v>1212.4000000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A348" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B348" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" s="3">
+        <v>1006.2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A349" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B349" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" s="3">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A350" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D350" s="3">
+        <v>866.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A351" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B351" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D351" s="3">
+        <v>742.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A352" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B352" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352" s="3">
+        <v>736.4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A353" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B353" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D353" s="3">
+        <v>736.7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A354" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B354" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D354" s="3">
+        <v>760.8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A355" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B355" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D355" s="3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A356" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B356" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D356" s="3">
+        <v>993.2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A357" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B357" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D357" s="3">
+        <v>979.1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A358" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B358" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D358" s="3">
+        <v>1011.2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A359" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B359" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D359" s="3">
+        <v>963.9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A360" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B360" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D360" s="3">
+        <v>979.2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A361" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B361" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D361" s="3">
+        <v>986.6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A362" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B362" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" s="3">
+        <v>1136.8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A363" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B363" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" s="3">
+        <v>1235.5999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A364" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B364" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" s="3">
+        <v>1059.9000000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A365" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B365" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" s="3">
+        <v>1154.3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A366" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B366" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" s="3">
+        <v>1177.7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A367" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B367" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" s="3">
+        <v>1013.9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A368" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B368" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D368" s="3">
+        <v>810.8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A369" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B369" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D369" s="3">
+        <v>767.1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A370" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B370" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D370" s="3">
+        <v>756.5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A371" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B371" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371" s="3">
+        <v>844.9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A372" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B372" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D372" s="3">
+        <v>846.6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A373" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B373" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D373" s="3">
+        <v>830.8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A374" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B374" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D374" s="3">
+        <v>215.2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A375" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B375" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D375" s="3">
+        <v>204.9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A376" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B376" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D376" s="3">
+        <v>234.2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A377" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B377" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D377" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A378" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B378" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D378" s="3">
+        <v>206.1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A379" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B379" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D379" s="3">
+        <v>224.8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A380" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B380" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D380" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A381" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B381" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D381" s="3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A382" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B382" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D382" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A383" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B383" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D383" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A384" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B384" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D384" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A385" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B385" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D385" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A386" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B386" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386" s="3">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A387" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B387" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" s="3">
+        <v>1055.5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A388" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B388" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" s="3">
+        <v>1290.9000000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A389" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B389" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" s="3">
+        <v>1232.5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A390" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B390" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390" s="3">
+        <v>1281.8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A391" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B391" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391" s="3">
+        <v>1268.4000000000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A392" s="2"/>
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A393" s="2"/>
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="2"/>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A394" s="2"/>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A396" s="2"/>
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A397" s="2"/>
+      <c r="B397" s="2"/>
+      <c r="C397" s="2"/>
+      <c r="D397" s="2"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A398" s="2"/>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="2"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A399" s="2"/>
+      <c r="B399" s="2"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="2"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A400" s="2"/>
+      <c r="B400" s="2"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="2"/>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A401" s="2"/>
+      <c r="B401" s="2"/>
+      <c r="C401" s="2"/>
+      <c r="D401" s="2"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A402" s="2"/>
+      <c r="B402" s="2"/>
+      <c r="C402" s="2"/>
+      <c r="D402" s="2"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A403" s="2"/>
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
+      <c r="D403" s="2"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A404" s="2"/>
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="2"/>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A405" s="2"/>
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="2"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A406" s="2"/>
+      <c r="B406" s="2"/>
+      <c r="C406" s="2"/>
+      <c r="D406" s="2"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A407" s="2"/>
+      <c r="B407" s="2"/>
+      <c r="C407" s="2"/>
+      <c r="D407" s="2"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A408" s="2"/>
+      <c r="B408" s="2"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A409" s="2"/>
+      <c r="B409" s="2"/>
+      <c r="C409" s="2"/>
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A410" s="2"/>
+      <c r="B410" s="2"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A411" s="2"/>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A412" s="2"/>
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A413" s="2"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A414" s="2"/>
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="2"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A415" s="2"/>
+      <c r="B415" s="2"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="2"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A416" s="2"/>
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A417" s="2"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A418" s="2"/>
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A419" s="2"/>
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A420" s="2"/>
+      <c r="B420" s="2"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="2"/>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A421" s="2"/>
+      <c r="B421" s="2"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
